--- a/qa/02.文档分析/村落&家园系统/村落&家园系统-文档分析-hzg.xlsx
+++ b/qa/02.文档分析/村落&家园系统/村落&家园系统-文档分析-hzg.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="25703"/>
+  <workbookPr filterPrivacy="1" autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lukehzg/手游项目/测试文档/02.文档分析/村落&amp;家园系统/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="135" windowWidth="14805" windowHeight="7980"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="38400" windowHeight="19540" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="封面" sheetId="1" r:id="rId1"/>
@@ -13,12 +18,17 @@
     <sheet name="角色&amp;NPC相关" sheetId="4" r:id="rId4"/>
     <sheet name="UI逻辑" sheetId="5" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="122211" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="235" uniqueCount="227">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="258" uniqueCount="250">
   <si>
     <t>场景组成</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -921,12 +931,103 @@
     <t>补充任务追踪界面</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
+  <si>
+    <t>考虑角色移动方式，如果用点击移动的话，操作冲突</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>缺少场景音效相关内容</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否有点击后角色语音反馈</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>建议不要显示VIP等级，显示VIP其实不能起到刺激消费的作用</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>颜色可以在斟酌一下，感觉用同色不好区分</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>其实图标可以显示玩家职业</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>见前页，操作冲突否？</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>点一下么，如果点住了可以移动么</t>
+  </si>
+  <si>
+    <t>模型和物件是否有实际交互功能，如果有，是否有交互范围限制</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>对移动速度和转身速度没有具体概念，等实际效果体验</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否有相应音效</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否有反馈语音</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>梦幻手游好像是点击后自动移动到物件旁边</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>功能图标没说</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>伙伴名字已经可以看出品级了，还要品级图重复，建议留一种</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>交互范围具体说明</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>你这是啥破UI排版，丑死了</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>如果有多个任务和多个功能，界面纵向扩展么</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>其他UI界面指的是之前已经弹出隐藏的还是UI上默认永远存在的</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>经济系统中没有金币元宝，好像是金币金券</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>进副本是在村落中一个固定的传送点</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>不是通过界面直接传送</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>显示位置固定，不会收起展开么</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -996,13 +1097,35 @@
       <family val="2"/>
       <charset val="134"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="11"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -1014,7 +1137,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
       <alignment vertical="center"/>
@@ -1022,8 +1145,10 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1050,11 +1175,15 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="5">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="常规 2" xfId="1"/>
     <cellStyle name="常规 3" xfId="2"/>
+    <cellStyle name="超链接" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="4" builtinId="9" hidden="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
@@ -1124,13 +1253,13 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>12</xdr:col>
+      <xdr:col>13</xdr:col>
       <xdr:colOff>239379</xdr:colOff>
       <xdr:row>32</xdr:row>
       <xdr:rowOff>63318</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
+      <xdr:col>14</xdr:col>
       <xdr:colOff>478153</xdr:colOff>
       <xdr:row>32</xdr:row>
       <xdr:rowOff>177655</xdr:rowOff>
@@ -1171,13 +1300,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>12</xdr:col>
+      <xdr:col>13</xdr:col>
       <xdr:colOff>95250</xdr:colOff>
       <xdr:row>28</xdr:row>
       <xdr:rowOff>95251</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
+      <xdr:col>16</xdr:col>
       <xdr:colOff>118857</xdr:colOff>
       <xdr:row>33</xdr:row>
       <xdr:rowOff>113724</xdr:rowOff>
@@ -1189,8 +1318,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="8324850" y="5962651"/>
-          <a:ext cx="2081007" cy="1066223"/>
+          <a:off x="10173315" y="6060154"/>
+          <a:ext cx="2039219" cy="1083635"/>
           <a:chOff x="7543800" y="7362826"/>
           <a:chExt cx="2081007" cy="1066223"/>
         </a:xfrm>
@@ -1228,7 +1357,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr algn="ctr"/>
-            <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:endParaRPr lang="zh-CHS" altLang="en-US" sz="1100"/>
           </a:p>
         </xdr:txBody>
       </xdr:sp>
@@ -1265,7 +1394,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr algn="ctr"/>
-            <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:endParaRPr lang="zh-CHS" altLang="en-US" sz="1100"/>
           </a:p>
         </xdr:txBody>
       </xdr:sp>
@@ -1328,7 +1457,7 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="ctr"/>
-              <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+              <a:endParaRPr lang="zh-CHS" altLang="en-US" sz="1100"/>
             </a:p>
           </xdr:txBody>
         </xdr:sp>
@@ -1375,7 +1504,7 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="ctr"/>
-              <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+              <a:endParaRPr lang="zh-CHS" altLang="en-US" sz="1100"/>
             </a:p>
           </xdr:txBody>
         </xdr:sp>
@@ -1470,7 +1599,7 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="ctr"/>
-              <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+              <a:endParaRPr lang="zh-CHS" altLang="en-US" sz="1100"/>
             </a:p>
           </xdr:txBody>
         </xdr:sp>
@@ -1517,7 +1646,7 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="ctr"/>
-              <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+              <a:endParaRPr lang="zh-CHS" altLang="en-US" sz="1100"/>
             </a:p>
           </xdr:txBody>
         </xdr:sp>
@@ -1581,7 +1710,7 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="ctr"/>
-              <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+              <a:endParaRPr lang="zh-CHS" altLang="en-US" sz="1100"/>
             </a:p>
           </xdr:txBody>
         </xdr:sp>
@@ -1628,7 +1757,7 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="ctr"/>
-              <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+              <a:endParaRPr lang="zh-CHS" altLang="en-US" sz="1100"/>
             </a:p>
           </xdr:txBody>
         </xdr:sp>
@@ -1638,13 +1767,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>12</xdr:col>
+      <xdr:col>13</xdr:col>
       <xdr:colOff>239379</xdr:colOff>
       <xdr:row>31</xdr:row>
       <xdr:rowOff>4040</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
+      <xdr:col>15</xdr:col>
       <xdr:colOff>156219</xdr:colOff>
       <xdr:row>32</xdr:row>
       <xdr:rowOff>177655</xdr:rowOff>
@@ -1685,13 +1814,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>12</xdr:col>
+      <xdr:col>13</xdr:col>
       <xdr:colOff>239379</xdr:colOff>
       <xdr:row>29</xdr:row>
       <xdr:rowOff>7773</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
+      <xdr:col>15</xdr:col>
       <xdr:colOff>595887</xdr:colOff>
       <xdr:row>32</xdr:row>
       <xdr:rowOff>177655</xdr:rowOff>
@@ -1737,7 +1866,7 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
+      <xdr:col>5</xdr:col>
       <xdr:colOff>247650</xdr:colOff>
       <xdr:row>23</xdr:row>
       <xdr:rowOff>56665</xdr:rowOff>
@@ -1776,13 +1905,13 @@
   </xdr:oneCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
+      <xdr:col>5</xdr:col>
       <xdr:colOff>247651</xdr:colOff>
       <xdr:row>19</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
+      <xdr:col>6</xdr:col>
       <xdr:colOff>323850</xdr:colOff>
       <xdr:row>21</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
@@ -1831,7 +1960,7 @@
         <a:p>
           <a:pPr marL="0" indent="0" algn="ctr"/>
           <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1100">
+            <a:rPr lang="zh-CHS" altLang="en-US" sz="1100">
               <a:solidFill>
                 <a:schemeClr val="dk1"/>
               </a:solidFill>
@@ -1848,13 +1977,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
+      <xdr:col>5</xdr:col>
       <xdr:colOff>238126</xdr:colOff>
       <xdr:row>21</xdr:row>
       <xdr:rowOff>104775</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
+      <xdr:col>6</xdr:col>
       <xdr:colOff>314325</xdr:colOff>
       <xdr:row>22</xdr:row>
       <xdr:rowOff>200025</xdr:rowOff>
@@ -1903,7 +2032,7 @@
         <a:p>
           <a:pPr algn="ctr"/>
           <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1100">
+            <a:rPr lang="zh-CHS" altLang="en-US" sz="1100">
               <a:latin typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
               <a:ea typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
             </a:rPr>
@@ -1916,13 +2045,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
+      <xdr:col>5</xdr:col>
       <xdr:colOff>238126</xdr:colOff>
       <xdr:row>18</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
+      <xdr:col>6</xdr:col>
       <xdr:colOff>314325</xdr:colOff>
       <xdr:row>19</xdr:row>
       <xdr:rowOff>104775</xdr:rowOff>
@@ -1971,7 +2100,7 @@
         <a:p>
           <a:pPr marL="0" indent="0" algn="ctr"/>
           <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1100">
+            <a:rPr lang="zh-CHS" altLang="en-US" sz="1100">
               <a:solidFill>
                 <a:schemeClr val="dk1"/>
               </a:solidFill>
@@ -1988,7 +2117,7 @@
   </xdr:twoCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
+      <xdr:col>3</xdr:col>
       <xdr:colOff>685800</xdr:colOff>
       <xdr:row>82</xdr:row>
       <xdr:rowOff>190015</xdr:rowOff>
@@ -2027,13 +2156,13 @@
   </xdr:oneCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
+      <xdr:col>2</xdr:col>
       <xdr:colOff>638175</xdr:colOff>
       <xdr:row>81</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>3</xdr:col>
+      <xdr:col>4</xdr:col>
       <xdr:colOff>28574</xdr:colOff>
       <xdr:row>82</xdr:row>
       <xdr:rowOff>171450</xdr:rowOff>
@@ -2082,7 +2211,7 @@
         <a:p>
           <a:pPr algn="ctr"/>
           <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1100">
+            <a:rPr lang="zh-CHS" altLang="en-US" sz="1100">
               <a:latin typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
               <a:ea typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
             </a:rPr>
@@ -2095,13 +2224,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
+      <xdr:col>4</xdr:col>
       <xdr:colOff>57150</xdr:colOff>
       <xdr:row>81</xdr:row>
       <xdr:rowOff>66675</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>4</xdr:col>
+      <xdr:col>5</xdr:col>
       <xdr:colOff>133349</xdr:colOff>
       <xdr:row>82</xdr:row>
       <xdr:rowOff>161925</xdr:rowOff>
@@ -2150,7 +2279,7 @@
         <a:p>
           <a:pPr algn="ctr"/>
           <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1100">
+            <a:rPr lang="zh-CHS" altLang="en-US" sz="1100">
               <a:latin typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
               <a:ea typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
             </a:rPr>
@@ -2163,13 +2292,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
+      <xdr:col>4</xdr:col>
       <xdr:colOff>38100</xdr:colOff>
       <xdr:row>78</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>4</xdr:col>
+      <xdr:col>5</xdr:col>
       <xdr:colOff>180975</xdr:colOff>
       <xdr:row>81</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
@@ -2218,7 +2347,7 @@
         <a:p>
           <a:pPr algn="ctr"/>
           <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1100">
+            <a:rPr lang="zh-CHS" altLang="en-US" sz="1100">
               <a:latin typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
               <a:ea typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
             </a:rPr>
@@ -2231,13 +2360,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
+      <xdr:col>3</xdr:col>
       <xdr:colOff>685800</xdr:colOff>
       <xdr:row>80</xdr:row>
       <xdr:rowOff>47625</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>3</xdr:col>
+      <xdr:col>4</xdr:col>
       <xdr:colOff>761999</xdr:colOff>
       <xdr:row>94</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
@@ -2280,14 +2409,14 @@
         <a:p>
           <a:pPr algn="ctr"/>
           <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="5400">
+            <a:rPr lang="en-US" altLang="zh-CHS" sz="5400">
               <a:solidFill>
                 <a:srgbClr val="FF0000"/>
               </a:solidFill>
             </a:rPr>
             <a:t>NPC</a:t>
           </a:r>
-          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="5400">
+          <a:endParaRPr lang="zh-CHS" altLang="en-US" sz="5400">
             <a:solidFill>
               <a:srgbClr val="FF0000"/>
             </a:solidFill>
@@ -2299,13 +2428,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
+      <xdr:col>5</xdr:col>
       <xdr:colOff>666751</xdr:colOff>
       <xdr:row>110</xdr:row>
       <xdr:rowOff>19049</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
+      <xdr:col>13</xdr:col>
       <xdr:colOff>104775</xdr:colOff>
       <xdr:row>120</xdr:row>
       <xdr:rowOff>9524</xdr:rowOff>
@@ -2356,7 +2485,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr algn="l"/>
-          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+          <a:endParaRPr lang="zh-CHS" altLang="en-US" sz="1100"/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -2364,13 +2493,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
+      <xdr:col>10</xdr:col>
       <xdr:colOff>171451</xdr:colOff>
       <xdr:row>110</xdr:row>
       <xdr:rowOff>28574</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
+      <xdr:col>13</xdr:col>
       <xdr:colOff>95250</xdr:colOff>
       <xdr:row>118</xdr:row>
       <xdr:rowOff>85725</xdr:rowOff>
@@ -2421,7 +2550,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr algn="l"/>
-          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+          <a:endParaRPr lang="zh-CHS" altLang="en-US" sz="1100"/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -2429,13 +2558,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>11</xdr:col>
+      <xdr:col>12</xdr:col>
       <xdr:colOff>180976</xdr:colOff>
       <xdr:row>110</xdr:row>
       <xdr:rowOff>66674</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
+      <xdr:col>13</xdr:col>
       <xdr:colOff>47626</xdr:colOff>
       <xdr:row>112</xdr:row>
       <xdr:rowOff>209549</xdr:rowOff>
@@ -2447,8 +2576,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="7724776" y="23117174"/>
-          <a:ext cx="552450" cy="561975"/>
+          <a:off x="9573684" y="23350007"/>
+          <a:ext cx="536928" cy="566209"/>
           <a:chOff x="2095500" y="5314950"/>
           <a:chExt cx="552450" cy="561975"/>
         </a:xfrm>
@@ -2496,7 +2625,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr algn="l"/>
-            <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:endParaRPr lang="zh-CHS" altLang="en-US" sz="1100"/>
           </a:p>
         </xdr:txBody>
       </xdr:sp>
@@ -2534,7 +2663,7 @@
   </xdr:twoCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
+      <xdr:col>10</xdr:col>
       <xdr:colOff>485775</xdr:colOff>
       <xdr:row>111</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
@@ -2576,21 +2705,21 @@
         <a:lstStyle/>
         <a:p>
           <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1100">
+            <a:rPr lang="zh-CHS" altLang="en-US" sz="1100">
               <a:latin typeface="微软雅黑" pitchFamily="34" charset="-122"/>
               <a:ea typeface="微软雅黑" pitchFamily="34" charset="-122"/>
             </a:rPr>
             <a:t>兔桑你这</a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+            <a:rPr lang="en-US" altLang="zh-CHS" sz="1100">
               <a:latin typeface="微软雅黑" pitchFamily="34" charset="-122"/>
               <a:ea typeface="微软雅黑" pitchFamily="34" charset="-122"/>
             </a:rPr>
             <a:t>2</a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1100">
+            <a:rPr lang="zh-CHS" altLang="en-US" sz="1100">
               <a:latin typeface="微软雅黑" pitchFamily="34" charset="-122"/>
               <a:ea typeface="微软雅黑" pitchFamily="34" charset="-122"/>
             </a:rPr>
@@ -2603,7 +2732,7 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
+      <xdr:col>10</xdr:col>
       <xdr:colOff>219075</xdr:colOff>
       <xdr:row>112</xdr:row>
       <xdr:rowOff>123825</xdr:rowOff>
@@ -2645,20 +2774,20 @@
         <a:lstStyle/>
         <a:p>
           <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1100">
+            <a:rPr lang="zh-CHS" altLang="en-US" sz="1100">
               <a:latin typeface="微软雅黑" pitchFamily="34" charset="-122"/>
               <a:ea typeface="微软雅黑" pitchFamily="34" charset="-122"/>
             </a:rPr>
             <a:t>你要知道，其实孔老师不</a:t>
           </a:r>
-          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100">
+          <a:endParaRPr lang="en-US" altLang="zh-CHS" sz="1100">
             <a:latin typeface="微软雅黑" pitchFamily="34" charset="-122"/>
             <a:ea typeface="微软雅黑" pitchFamily="34" charset="-122"/>
           </a:endParaRPr>
         </a:p>
         <a:p>
           <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1100">
+            <a:rPr lang="zh-CHS" altLang="en-US" sz="1100">
               <a:latin typeface="微软雅黑" pitchFamily="34" charset="-122"/>
               <a:ea typeface="微软雅黑" pitchFamily="34" charset="-122"/>
             </a:rPr>
@@ -2671,13 +2800,13 @@
   </xdr:oneCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
+      <xdr:col>10</xdr:col>
       <xdr:colOff>314325</xdr:colOff>
       <xdr:row>116</xdr:row>
       <xdr:rowOff>142875</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
+      <xdr:col>11</xdr:col>
       <xdr:colOff>236384</xdr:colOff>
       <xdr:row>118</xdr:row>
       <xdr:rowOff>58226</xdr:rowOff>
@@ -2689,8 +2818,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="6486525" y="24450675"/>
-          <a:ext cx="607859" cy="334451"/>
+          <a:off x="8366478" y="24696208"/>
+          <a:ext cx="592337" cy="338685"/>
           <a:chOff x="7000875" y="24355425"/>
           <a:chExt cx="607859" cy="334451"/>
         </a:xfrm>
@@ -2741,7 +2870,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr algn="l"/>
-            <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:endParaRPr lang="zh-CHS" altLang="en-US" sz="1100"/>
           </a:p>
         </xdr:txBody>
       </xdr:sp>
@@ -2781,7 +2910,7 @@
           <a:lstStyle/>
           <a:p>
             <a:r>
-              <a:rPr lang="zh-CN" altLang="en-US" sz="1100" b="1">
+              <a:rPr lang="zh-CHS" altLang="en-US" sz="1100" b="1">
                 <a:latin typeface="微软雅黑" pitchFamily="34" charset="-122"/>
                 <a:ea typeface="微软雅黑" pitchFamily="34" charset="-122"/>
               </a:rPr>
@@ -2795,13 +2924,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
+      <xdr:col>10</xdr:col>
       <xdr:colOff>323850</xdr:colOff>
       <xdr:row>115</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
+      <xdr:col>13</xdr:col>
       <xdr:colOff>127885</xdr:colOff>
       <xdr:row>116</xdr:row>
       <xdr:rowOff>124901</xdr:rowOff>
@@ -2813,8 +2942,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="6496050" y="24098250"/>
-          <a:ext cx="1861435" cy="334451"/>
+          <a:off x="8376003" y="24341667"/>
+          <a:ext cx="1814868" cy="336567"/>
           <a:chOff x="7010402" y="24345900"/>
           <a:chExt cx="1436542" cy="334451"/>
         </a:xfrm>
@@ -2865,7 +2994,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr algn="l"/>
-            <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:endParaRPr lang="zh-CHS" altLang="en-US" sz="1100"/>
           </a:p>
         </xdr:txBody>
       </xdr:sp>
@@ -2905,21 +3034,21 @@
           <a:lstStyle/>
           <a:p>
             <a:r>
-              <a:rPr lang="zh-CN" altLang="en-US" sz="1100" b="1">
+              <a:rPr lang="zh-CHS" altLang="en-US" sz="1100" b="1">
                 <a:latin typeface="微软雅黑" pitchFamily="34" charset="-122"/>
                 <a:ea typeface="微软雅黑" pitchFamily="34" charset="-122"/>
               </a:rPr>
               <a:t>主线</a:t>
             </a:r>
             <a:r>
-              <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="1">
+              <a:rPr lang="en-US" altLang="zh-CHS" sz="1100" b="1">
                 <a:latin typeface="微软雅黑" pitchFamily="34" charset="-122"/>
                 <a:ea typeface="微软雅黑" pitchFamily="34" charset="-122"/>
               </a:rPr>
               <a:t>*3fat</a:t>
             </a:r>
             <a:r>
-              <a:rPr lang="zh-CN" altLang="en-US" sz="1100" b="1">
+              <a:rPr lang="zh-CHS" altLang="en-US" sz="1100" b="1">
                 <a:latin typeface="微软雅黑" pitchFamily="34" charset="-122"/>
                 <a:ea typeface="微软雅黑" pitchFamily="34" charset="-122"/>
               </a:rPr>
@@ -2933,13 +3062,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
+      <xdr:col>10</xdr:col>
       <xdr:colOff>152404</xdr:colOff>
       <xdr:row>110</xdr:row>
       <xdr:rowOff>9519</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
+      <xdr:col>10</xdr:col>
       <xdr:colOff>524164</xdr:colOff>
       <xdr:row>111</xdr:row>
       <xdr:rowOff>76194</xdr:rowOff>
@@ -2951,8 +3080,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="6324604" y="23060019"/>
-          <a:ext cx="371760" cy="276225"/>
+          <a:off x="8204557" y="23292852"/>
+          <a:ext cx="371760" cy="278342"/>
           <a:chOff x="6966137" y="24344199"/>
           <a:chExt cx="451946" cy="325551"/>
         </a:xfrm>
@@ -3003,7 +3132,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr algn="l"/>
-            <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:endParaRPr lang="zh-CHS" altLang="en-US" sz="1100"/>
           </a:p>
         </xdr:txBody>
       </xdr:sp>
@@ -3043,7 +3172,7 @@
           <a:lstStyle/>
           <a:p>
             <a:r>
-              <a:rPr lang="zh-CN" altLang="en-US" sz="900" b="1">
+              <a:rPr lang="zh-CHS" altLang="en-US" sz="900" b="1">
                 <a:latin typeface="微软雅黑" pitchFamily="34" charset="-122"/>
                 <a:ea typeface="微软雅黑" pitchFamily="34" charset="-122"/>
               </a:rPr>
@@ -3057,13 +3186,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
+      <xdr:col>5</xdr:col>
       <xdr:colOff>676275</xdr:colOff>
       <xdr:row>151</xdr:row>
       <xdr:rowOff>47625</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
+      <xdr:col>13</xdr:col>
       <xdr:colOff>114299</xdr:colOff>
       <xdr:row>161</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
@@ -3114,7 +3243,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr algn="l"/>
-          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+          <a:endParaRPr lang="zh-CHS" altLang="en-US" sz="1100"/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -3122,13 +3251,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>657225</xdr:colOff>
       <xdr:row>157</xdr:row>
       <xdr:rowOff>171450</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
+      <xdr:col>13</xdr:col>
       <xdr:colOff>104774</xdr:colOff>
       <xdr:row>161</xdr:row>
       <xdr:rowOff>19051</xdr:rowOff>
@@ -3179,7 +3308,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr algn="l"/>
-          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+          <a:endParaRPr lang="zh-CHS" altLang="en-US" sz="1100"/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -3187,7 +3316,7 @@
   </xdr:twoCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
+      <xdr:col>8</xdr:col>
       <xdr:colOff>619124</xdr:colOff>
       <xdr:row>158</xdr:row>
       <xdr:rowOff>9526</xdr:rowOff>
@@ -3229,20 +3358,20 @@
         <a:lstStyle/>
         <a:p>
           <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1100">
+            <a:rPr lang="zh-CHS" altLang="en-US" sz="1100">
               <a:latin typeface="微软雅黑" pitchFamily="34" charset="-122"/>
               <a:ea typeface="微软雅黑" pitchFamily="34" charset="-122"/>
             </a:rPr>
             <a:t>你要知道，其实孔老师不</a:t>
           </a:r>
-          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100">
+          <a:endParaRPr lang="en-US" altLang="zh-CHS" sz="1100">
             <a:latin typeface="微软雅黑" pitchFamily="34" charset="-122"/>
             <a:ea typeface="微软雅黑" pitchFamily="34" charset="-122"/>
           </a:endParaRPr>
         </a:p>
         <a:p>
           <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1100">
+            <a:rPr lang="zh-CHS" altLang="en-US" sz="1100">
               <a:latin typeface="微软雅黑" pitchFamily="34" charset="-122"/>
               <a:ea typeface="微软雅黑" pitchFamily="34" charset="-122"/>
             </a:rPr>
@@ -3255,13 +3384,13 @@
   </xdr:oneCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>11</xdr:col>
+      <xdr:col>12</xdr:col>
       <xdr:colOff>228600</xdr:colOff>
       <xdr:row>156</xdr:row>
       <xdr:rowOff>123825</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
+      <xdr:col>13</xdr:col>
       <xdr:colOff>95250</xdr:colOff>
       <xdr:row>159</xdr:row>
       <xdr:rowOff>57150</xdr:rowOff>
@@ -3273,8 +3402,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="7772400" y="32813625"/>
-          <a:ext cx="552450" cy="561975"/>
+          <a:off x="9621308" y="33143825"/>
+          <a:ext cx="536928" cy="568325"/>
           <a:chOff x="2095500" y="5314950"/>
           <a:chExt cx="552450" cy="561975"/>
         </a:xfrm>
@@ -3322,7 +3451,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr algn="l"/>
-            <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:endParaRPr lang="zh-CHS" altLang="en-US" sz="1100"/>
           </a:p>
         </xdr:txBody>
       </xdr:sp>
@@ -3360,13 +3489,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
+      <xdr:col>6</xdr:col>
       <xdr:colOff>9525</xdr:colOff>
       <xdr:row>162</xdr:row>
       <xdr:rowOff>190500</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
+      <xdr:col>13</xdr:col>
       <xdr:colOff>133349</xdr:colOff>
       <xdr:row>172</xdr:row>
       <xdr:rowOff>180975</xdr:rowOff>
@@ -3417,7 +3546,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr algn="l"/>
-          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+          <a:endParaRPr lang="zh-CHS" altLang="en-US" sz="1100"/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -3425,13 +3554,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
+      <xdr:col>6</xdr:col>
       <xdr:colOff>19050</xdr:colOff>
       <xdr:row>169</xdr:row>
       <xdr:rowOff>95250</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
+      <xdr:col>11</xdr:col>
       <xdr:colOff>152399</xdr:colOff>
       <xdr:row>172</xdr:row>
       <xdr:rowOff>152401</xdr:rowOff>
@@ -3482,7 +3611,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr algn="l"/>
-          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+          <a:endParaRPr lang="zh-CHS" altLang="en-US" sz="1100"/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -3490,13 +3619,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
+      <xdr:col>6</xdr:col>
       <xdr:colOff>28575</xdr:colOff>
       <xdr:row>168</xdr:row>
       <xdr:rowOff>47625</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
+      <xdr:col>6</xdr:col>
       <xdr:colOff>581025</xdr:colOff>
       <xdr:row>170</xdr:row>
       <xdr:rowOff>190500</xdr:rowOff>
@@ -3508,8 +3637,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="3457575" y="35252025"/>
-          <a:ext cx="552450" cy="561975"/>
+          <a:off x="5399617" y="35607625"/>
+          <a:ext cx="552450" cy="566208"/>
           <a:chOff x="2095500" y="5314950"/>
           <a:chExt cx="552450" cy="561975"/>
         </a:xfrm>
@@ -3557,7 +3686,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr algn="l"/>
-            <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:endParaRPr lang="zh-CHS" altLang="en-US" sz="1100"/>
           </a:p>
         </xdr:txBody>
       </xdr:sp>
@@ -3595,7 +3724,7 @@
   </xdr:twoCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
+      <xdr:col>6</xdr:col>
       <xdr:colOff>685799</xdr:colOff>
       <xdr:row>169</xdr:row>
       <xdr:rowOff>152401</xdr:rowOff>
@@ -3637,7 +3766,7 @@
         <a:lstStyle/>
         <a:p>
           <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1100">
+            <a:rPr lang="zh-CHS" altLang="en-US" sz="1100">
               <a:latin typeface="微软雅黑" pitchFamily="34" charset="-122"/>
               <a:ea typeface="微软雅黑" pitchFamily="34" charset="-122"/>
             </a:rPr>
@@ -3650,7 +3779,7 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
+      <xdr:col>10</xdr:col>
       <xdr:colOff>628650</xdr:colOff>
       <xdr:row>156</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
@@ -3692,21 +3821,21 @@
         <a:lstStyle/>
         <a:p>
           <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1100">
+            <a:rPr lang="zh-CHS" altLang="en-US" sz="1100">
               <a:latin typeface="微软雅黑" pitchFamily="34" charset="-122"/>
               <a:ea typeface="微软雅黑" pitchFamily="34" charset="-122"/>
             </a:rPr>
             <a:t>兔桑你这</a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+            <a:rPr lang="en-US" altLang="zh-CHS" sz="1100">
               <a:latin typeface="微软雅黑" pitchFamily="34" charset="-122"/>
               <a:ea typeface="微软雅黑" pitchFamily="34" charset="-122"/>
             </a:rPr>
             <a:t>2</a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1100">
+            <a:rPr lang="zh-CHS" altLang="en-US" sz="1100">
               <a:latin typeface="微软雅黑" pitchFamily="34" charset="-122"/>
               <a:ea typeface="微软雅黑" pitchFamily="34" charset="-122"/>
             </a:rPr>
@@ -3719,7 +3848,7 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
+      <xdr:col>6</xdr:col>
       <xdr:colOff>581025</xdr:colOff>
       <xdr:row>168</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
@@ -3761,21 +3890,21 @@
         <a:lstStyle/>
         <a:p>
           <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1100">
+            <a:rPr lang="zh-CHS" altLang="en-US" sz="1100">
               <a:latin typeface="微软雅黑" pitchFamily="34" charset="-122"/>
               <a:ea typeface="微软雅黑" pitchFamily="34" charset="-122"/>
             </a:rPr>
             <a:t>兔桑你这</a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+            <a:rPr lang="en-US" altLang="zh-CHS" sz="1100">
               <a:latin typeface="微软雅黑" pitchFamily="34" charset="-122"/>
               <a:ea typeface="微软雅黑" pitchFamily="34" charset="-122"/>
             </a:rPr>
             <a:t>3</a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1100">
+            <a:rPr lang="zh-CHS" altLang="en-US" sz="1100">
               <a:latin typeface="微软雅黑" pitchFamily="34" charset="-122"/>
               <a:ea typeface="微软雅黑" pitchFamily="34" charset="-122"/>
             </a:rPr>
@@ -3788,7 +3917,7 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>10</xdr:col>
+      <xdr:col>11</xdr:col>
       <xdr:colOff>171450</xdr:colOff>
       <xdr:row>159</xdr:row>
       <xdr:rowOff>123825</xdr:rowOff>
@@ -3830,10 +3959,10 @@
         <a:lstStyle/>
         <a:p>
           <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="1"/>
+            <a:rPr lang="en-US" altLang="zh-CHS" sz="1100" b="1"/>
             <a:t>》》》</a:t>
           </a:r>
-          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100" b="1"/>
+          <a:endParaRPr lang="zh-CHS" altLang="en-US" sz="1100" b="1"/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -3841,7 +3970,7 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
+      <xdr:col>9</xdr:col>
       <xdr:colOff>647700</xdr:colOff>
       <xdr:row>171</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
@@ -3883,10 +4012,10 @@
         <a:lstStyle/>
         <a:p>
           <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="1"/>
+            <a:rPr lang="en-US" altLang="zh-CHS" sz="1100" b="1"/>
             <a:t>》》》</a:t>
           </a:r>
-          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100" b="1"/>
+          <a:endParaRPr lang="zh-CHS" altLang="en-US" sz="1100" b="1"/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -3899,13 +4028,13 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
+      <xdr:col>2</xdr:col>
       <xdr:colOff>276225</xdr:colOff>
       <xdr:row>2</xdr:row>
       <xdr:rowOff>200025</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
+      <xdr:col>10</xdr:col>
       <xdr:colOff>666750</xdr:colOff>
       <xdr:row>18</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
@@ -3956,7 +4085,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr algn="l"/>
-          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+          <a:endParaRPr lang="zh-CHS" altLang="en-US" sz="1100"/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -3964,13 +4093,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
+      <xdr:col>6</xdr:col>
       <xdr:colOff>66675</xdr:colOff>
       <xdr:row>7</xdr:row>
       <xdr:rowOff>171449</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
+      <xdr:col>6</xdr:col>
       <xdr:colOff>590551</xdr:colOff>
       <xdr:row>13</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
@@ -3982,8 +4111,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="3495675" y="1638299"/>
-          <a:ext cx="523876" cy="1123951"/>
+          <a:off x="5441315" y="1664969"/>
+          <a:ext cx="523876" cy="1146811"/>
           <a:chOff x="7867650" y="1905000"/>
           <a:chExt cx="285750" cy="714375"/>
         </a:xfrm>
@@ -4030,7 +4159,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr algn="l"/>
-            <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:endParaRPr lang="zh-CHS" altLang="en-US" sz="1100"/>
           </a:p>
         </xdr:txBody>
       </xdr:sp>
@@ -4070,7 +4199,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr algn="l"/>
-            <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:endParaRPr lang="zh-CHS" altLang="en-US" sz="1100"/>
           </a:p>
         </xdr:txBody>
       </xdr:sp>
@@ -4079,13 +4208,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
+      <xdr:col>2</xdr:col>
       <xdr:colOff>295275</xdr:colOff>
       <xdr:row>3</xdr:row>
       <xdr:rowOff>9526</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
+      <xdr:col>6</xdr:col>
       <xdr:colOff>657224</xdr:colOff>
       <xdr:row>6</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
@@ -4132,7 +4261,7 @@
         <a:p>
           <a:pPr algn="l"/>
           <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1400" b="1">
+            <a:rPr lang="zh-CHS" altLang="en-US" sz="1400" b="1">
               <a:solidFill>
                 <a:srgbClr val="FF0000"/>
               </a:solidFill>
@@ -4148,13 +4277,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
+      <xdr:col>2</xdr:col>
       <xdr:colOff>285750</xdr:colOff>
       <xdr:row>15</xdr:row>
       <xdr:rowOff>142875</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>4</xdr:col>
+      <xdr:col>5</xdr:col>
       <xdr:colOff>476249</xdr:colOff>
       <xdr:row>18</xdr:row>
       <xdr:rowOff>28575</xdr:rowOff>
@@ -4203,7 +4332,7 @@
         <a:p>
           <a:pPr algn="l"/>
           <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:rPr lang="zh-CHS" altLang="en-US" sz="1100"/>
             <a:t>聊天界面</a:t>
           </a:r>
         </a:p>
@@ -4213,13 +4342,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>19051</xdr:colOff>
       <xdr:row>16</xdr:row>
       <xdr:rowOff>133349</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
+      <xdr:col>10</xdr:col>
       <xdr:colOff>657225</xdr:colOff>
       <xdr:row>18</xdr:row>
       <xdr:rowOff>28574</xdr:rowOff>
@@ -4266,10 +4395,10 @@
         <a:p>
           <a:pPr algn="l"/>
           <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:rPr lang="zh-CHS" altLang="en-US" sz="1100"/>
             <a:t>基础功能</a:t>
           </a:r>
-          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
+          <a:endParaRPr lang="en-US" altLang="zh-CHS" sz="1100"/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -4277,13 +4406,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
+      <xdr:col>10</xdr:col>
       <xdr:colOff>342900</xdr:colOff>
       <xdr:row>13</xdr:row>
       <xdr:rowOff>57150</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
+      <xdr:col>10</xdr:col>
       <xdr:colOff>656100</xdr:colOff>
       <xdr:row>18</xdr:row>
       <xdr:rowOff>9524</xdr:rowOff>
@@ -4330,7 +4459,7 @@
         <a:p>
           <a:pPr algn="l"/>
           <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:rPr lang="zh-CHS" altLang="en-US" sz="1100"/>
             <a:t>基础功能</a:t>
           </a:r>
         </a:p>
@@ -4340,13 +4469,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
+      <xdr:col>9</xdr:col>
       <xdr:colOff>561975</xdr:colOff>
       <xdr:row>3</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
+      <xdr:col>10</xdr:col>
       <xdr:colOff>657225</xdr:colOff>
       <xdr:row>6</xdr:row>
       <xdr:rowOff>85724</xdr:rowOff>
@@ -4393,7 +4522,7 @@
         <a:p>
           <a:pPr algn="l"/>
           <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:rPr lang="zh-CHS" altLang="en-US" sz="1100"/>
             <a:t>副本按钮</a:t>
           </a:r>
         </a:p>
@@ -4403,13 +4532,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
+      <xdr:col>4</xdr:col>
       <xdr:colOff>9525</xdr:colOff>
       <xdr:row>25</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
+      <xdr:col>8</xdr:col>
       <xdr:colOff>371474</xdr:colOff>
       <xdr:row>28</xdr:row>
       <xdr:rowOff>47624</xdr:rowOff>
@@ -4455,7 +4584,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr algn="l"/>
-          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1400" b="1">
+          <a:endParaRPr lang="zh-CHS" altLang="en-US" sz="1400" b="1">
             <a:solidFill>
               <a:srgbClr val="FF0000"/>
             </a:solidFill>
@@ -4469,13 +4598,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
+      <xdr:col>4</xdr:col>
       <xdr:colOff>38100</xdr:colOff>
       <xdr:row>25</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>3</xdr:col>
+      <xdr:col>4</xdr:col>
       <xdr:colOff>590550</xdr:colOff>
       <xdr:row>28</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
@@ -4487,8 +4616,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="2095500" y="5314950"/>
-          <a:ext cx="552450" cy="561975"/>
+          <a:off x="4071620" y="5410200"/>
+          <a:ext cx="552450" cy="573405"/>
           <a:chOff x="2095500" y="5314950"/>
           <a:chExt cx="552450" cy="561975"/>
         </a:xfrm>
@@ -4536,7 +4665,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr algn="l"/>
-            <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:endParaRPr lang="zh-CHS" altLang="en-US" sz="1100"/>
           </a:p>
         </xdr:txBody>
       </xdr:sp>
@@ -4574,13 +4703,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
+      <xdr:col>3</xdr:col>
       <xdr:colOff>523875</xdr:colOff>
       <xdr:row>24</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>3</xdr:col>
+      <xdr:col>4</xdr:col>
       <xdr:colOff>209550</xdr:colOff>
       <xdr:row>26</xdr:row>
       <xdr:rowOff>57150</xdr:rowOff>
@@ -4592,8 +4721,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="1895475" y="5143500"/>
-          <a:ext cx="371475" cy="361950"/>
+          <a:off x="3886835" y="5234940"/>
+          <a:ext cx="356235" cy="369570"/>
           <a:chOff x="1895475" y="4933950"/>
           <a:chExt cx="371475" cy="361950"/>
         </a:xfrm>
@@ -4640,7 +4769,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr algn="l"/>
-            <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100">
+            <a:endParaRPr lang="zh-CHS" altLang="en-US" sz="1100">
               <a:solidFill>
                 <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
@@ -4684,10 +4813,10 @@
           <a:lstStyle/>
           <a:p>
             <a:r>
-              <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+              <a:rPr lang="en-US" altLang="zh-CHS" sz="1100"/>
               <a:t>25</a:t>
             </a:r>
-            <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:endParaRPr lang="zh-CHS" altLang="en-US" sz="1100"/>
           </a:p>
         </xdr:txBody>
       </xdr:sp>
@@ -4696,7 +4825,7 @@
   </xdr:twoCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
+      <xdr:col>5</xdr:col>
       <xdr:colOff>19050</xdr:colOff>
       <xdr:row>25</xdr:row>
       <xdr:rowOff>47625</xdr:rowOff>
@@ -4738,7 +4867,7 @@
         <a:lstStyle/>
         <a:p>
           <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1100">
+            <a:rPr lang="zh-CHS" altLang="en-US" sz="1100">
               <a:latin typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
               <a:ea typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
             </a:rPr>
@@ -4751,13 +4880,13 @@
   </xdr:oneCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
+      <xdr:col>5</xdr:col>
       <xdr:colOff>95250</xdr:colOff>
       <xdr:row>26</xdr:row>
       <xdr:rowOff>190500</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
+      <xdr:col>8</xdr:col>
       <xdr:colOff>276225</xdr:colOff>
       <xdr:row>28</xdr:row>
       <xdr:rowOff>35960</xdr:rowOff>
@@ -4769,8 +4898,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="2838450" y="5638800"/>
-          <a:ext cx="2238375" cy="264560"/>
+          <a:off x="4799330" y="5737860"/>
+          <a:ext cx="2192655" cy="272180"/>
           <a:chOff x="2514600" y="5962650"/>
           <a:chExt cx="2238375" cy="264560"/>
         </a:xfrm>
@@ -4827,14 +4956,14 @@
             <a:p>
               <a:pPr algn="l"/>
               <a:r>
-                <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+                <a:rPr lang="en-US" altLang="zh-CHS" sz="1100">
                   <a:solidFill>
                     <a:srgbClr val="FF0000"/>
                   </a:solidFill>
                 </a:rPr>
                 <a:t>30/120</a:t>
               </a:r>
-              <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100">
+              <a:endParaRPr lang="zh-CHS" altLang="en-US" sz="1100">
                 <a:solidFill>
                   <a:srgbClr val="FF0000"/>
                 </a:solidFill>
@@ -4877,7 +5006,7 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l"/>
-              <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100">
+              <a:endParaRPr lang="zh-CHS" altLang="en-US" sz="1100">
                 <a:solidFill>
                   <a:srgbClr val="FF0000"/>
                 </a:solidFill>
@@ -4922,10 +5051,10 @@
           <a:lstStyle/>
           <a:p>
             <a:r>
-              <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+              <a:rPr lang="en-US" altLang="zh-CHS" sz="1100"/>
               <a:t>30/120</a:t>
             </a:r>
-            <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:endParaRPr lang="zh-CHS" altLang="en-US" sz="1100"/>
           </a:p>
         </xdr:txBody>
       </xdr:sp>
@@ -4934,7 +5063,7 @@
   </xdr:twoCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
+      <xdr:col>3</xdr:col>
       <xdr:colOff>675625</xdr:colOff>
       <xdr:row>28</xdr:row>
       <xdr:rowOff>3773</xdr:rowOff>
@@ -4963,7 +5092,7 @@
         <a:p>
           <a:pPr algn="ctr"/>
           <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1400" b="1" cap="none" spc="50">
+            <a:rPr lang="zh-CHS" altLang="en-US" sz="1400" b="1" cap="none" spc="50">
               <a:ln w="12700" cmpd="sng">
                 <a:solidFill>
                   <a:schemeClr val="accent6">
@@ -4990,7 +5119,7 @@
             <a:t>总战力</a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1400" b="1" cap="none" spc="50" baseline="0">
+            <a:rPr lang="zh-CHS" altLang="en-US" sz="1400" b="1" cap="none" spc="50" baseline="0">
               <a:ln w="12700" cmpd="sng">
                 <a:solidFill>
                   <a:schemeClr val="accent6">
@@ -5017,7 +5146,7 @@
             <a:t> </a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1400" b="1" cap="none" spc="50" baseline="0">
+            <a:rPr lang="en-US" altLang="zh-CHS" sz="1400" b="1" cap="none" spc="50" baseline="0">
               <a:ln w="12700" cmpd="sng">
                 <a:solidFill>
                   <a:schemeClr val="accent6">
@@ -5043,7 +5172,7 @@
             </a:rPr>
             <a:t>9999999</a:t>
           </a:r>
-          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1400" b="1" cap="none" spc="50">
+          <a:endParaRPr lang="zh-CHS" altLang="en-US" sz="1400" b="1" cap="none" spc="50">
             <a:ln w="12700" cmpd="sng">
               <a:solidFill>
                 <a:schemeClr val="accent6">
@@ -5074,7 +5203,7 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
+      <xdr:col>6</xdr:col>
       <xdr:colOff>571500</xdr:colOff>
       <xdr:row>25</xdr:row>
       <xdr:rowOff>161925</xdr:rowOff>
@@ -5116,20 +5245,20 @@
         <a:lstStyle/>
         <a:p>
           <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="900">
+            <a:rPr lang="zh-CHS" altLang="en-US" sz="900">
               <a:latin typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
               <a:ea typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
             </a:rPr>
             <a:t>元宝：</a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="900">
+            <a:rPr lang="en-US" altLang="zh-CHS" sz="900">
               <a:latin typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
               <a:ea typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
             </a:rPr>
             <a:t>9999</a:t>
           </a:r>
-          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="900">
+          <a:endParaRPr lang="zh-CHS" altLang="en-US" sz="900">
             <a:latin typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
             <a:ea typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
           </a:endParaRPr>
@@ -5140,7 +5269,7 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
+      <xdr:col>6</xdr:col>
       <xdr:colOff>571500</xdr:colOff>
       <xdr:row>24</xdr:row>
       <xdr:rowOff>190500</xdr:rowOff>
@@ -5182,20 +5311,20 @@
         <a:lstStyle/>
         <a:p>
           <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="900">
+            <a:rPr lang="zh-CHS" altLang="en-US" sz="900">
               <a:latin typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
               <a:ea typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
             </a:rPr>
             <a:t>金币：</a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="900">
+            <a:rPr lang="en-US" altLang="zh-CHS" sz="900">
               <a:latin typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
               <a:ea typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
             </a:rPr>
             <a:t>9999</a:t>
           </a:r>
-          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="900">
+          <a:endParaRPr lang="zh-CHS" altLang="en-US" sz="900">
             <a:latin typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
             <a:ea typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
           </a:endParaRPr>
@@ -5206,13 +5335,13 @@
   </xdr:oneCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
+      <xdr:col>9</xdr:col>
       <xdr:colOff>295275</xdr:colOff>
       <xdr:row>6</xdr:row>
       <xdr:rowOff>47625</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
+      <xdr:col>10</xdr:col>
       <xdr:colOff>657225</xdr:colOff>
       <xdr:row>13</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
@@ -5259,7 +5388,7 @@
         <a:p>
           <a:pPr algn="l"/>
           <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:rPr lang="zh-CHS" altLang="en-US" sz="1100"/>
             <a:t>任务追踪</a:t>
           </a:r>
         </a:p>
@@ -5271,9 +5400,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="办公室">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -5311,9 +5440,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="办公室">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -5348,7 +5477,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -5383,7 +5512,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="办公室">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -5559,18 +5688,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="2" width="9" style="2"/>
-    <col min="3" max="3" width="12.375" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="16384" width="9" style="2"/>
+    <col min="1" max="2" width="8.83203125" style="2"/>
+    <col min="3" max="3" width="12.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="16384" width="8.83203125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>141</v>
       </c>
@@ -5586,7 +5715,7 @@
       <c r="I1" s="6"/>
       <c r="J1" s="6"/>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="5"/>
       <c r="B2" s="6"/>
       <c r="C2" s="7"/>
@@ -5598,7 +5727,7 @@
       <c r="I2" s="6"/>
       <c r="J2" s="6"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>142</v>
       </c>
@@ -5614,7 +5743,7 @@
       <c r="I3" s="6"/>
       <c r="J3" s="6"/>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="5"/>
       <c r="B4" s="6"/>
       <c r="C4" s="7"/>
@@ -5626,7 +5755,7 @@
       <c r="I4" s="6"/>
       <c r="J4" s="6"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
         <v>143</v>
       </c>
@@ -5642,7 +5771,7 @@
       <c r="I5" s="6"/>
       <c r="J5" s="6"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="5"/>
       <c r="B6" s="6"/>
       <c r="C6" s="7"/>
@@ -5654,7 +5783,7 @@
       <c r="I6" s="6"/>
       <c r="J6" s="6"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
         <v>144</v>
       </c>
@@ -5668,7 +5797,7 @@
       <c r="I7" s="6"/>
       <c r="J7" s="6"/>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="5"/>
       <c r="B8" s="6"/>
       <c r="C8" s="7"/>
@@ -5680,7 +5809,7 @@
       <c r="I8" s="6"/>
       <c r="J8" s="6"/>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
         <v>145</v>
       </c>
@@ -5708,7 +5837,7 @@
       <c r="I9" s="6"/>
       <c r="J9" s="6"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="5"/>
       <c r="B10" s="6"/>
       <c r="C10" s="7"/>
@@ -5720,7 +5849,7 @@
       <c r="I10" s="6"/>
       <c r="J10" s="6"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="5"/>
       <c r="B11" s="6" t="s">
         <v>153</v>
@@ -5744,7 +5873,7 @@
       <c r="I11" s="6"/>
       <c r="J11" s="6"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="5"/>
       <c r="B12" s="6"/>
       <c r="C12" s="9"/>
@@ -5759,7 +5888,7 @@
       <c r="J12" s="6"/>
       <c r="K12" s="11"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="5"/>
       <c r="B13" s="6"/>
       <c r="C13" s="9"/>
@@ -5772,7 +5901,7 @@
       <c r="J13" s="6"/>
       <c r="K13" s="11"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
         <v>157</v>
       </c>
@@ -5807,13 +5936,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="O26" sqref="O26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="16384" width="9" style="1"/>
+    <col min="1" max="16384" width="8.83203125" style="1"/>
   </cols>
   <sheetData/>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -5824,239 +5953,249 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F49"/>
+  <dimension ref="A1:G51"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="N22" sqref="N22"/>
+    <sheetView topLeftCell="A35" zoomScale="155" workbookViewId="0">
+      <selection activeCell="A51" sqref="A51"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="16384" width="9" style="1"/>
+    <col min="1" max="1" width="26.5" style="1" customWidth="1"/>
+    <col min="2" max="16384" width="8.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B2" s="1" t="s">
+    <row r="2" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="C2" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="C3" s="1" t="s">
+    <row r="3" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="D3" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="D4" s="1" t="s">
+    <row r="4" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="E4" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="C5" s="1" t="s">
+    <row r="5" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="D5" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="D6" s="1" t="s">
+    <row r="6" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="E6" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="C7" s="1" t="s">
+    <row r="7" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="D7" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="D8" s="1" t="s">
+    <row r="8" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="E8" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="E9" s="1" t="s">
+    <row r="9" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="F9" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="E10" s="1" t="s">
+    <row r="10" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="F10" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="E11" s="1" t="s">
+    <row r="11" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="F11" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A13" s="1" t="s">
+    <row r="13" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B13" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B14" s="1" t="s">
+    <row r="14" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="C14" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B15" s="1" t="s">
+    <row r="15" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="C15" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A18" s="1" t="s">
+    <row r="18" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B18" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B19" s="1" t="s">
+    <row r="19" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="C19" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="C20" s="1" t="s">
+    <row r="20" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="D20" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="C21" s="1" t="s">
+    <row r="21" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="D21" s="1" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="C23" s="1" t="s">
+    <row r="23" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="D23" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="D24" s="1" t="s">
+    <row r="24" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="E24" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="D25" s="1" t="s">
+    <row r="25" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="E25" s="1" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="C27" s="1" t="s">
+    <row r="27" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="D27" s="1" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="D28" s="1" t="s">
+    <row r="28" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="E28" s="1" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="D29" s="1" t="s">
+    <row r="29" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="E29" s="1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="D30" s="1" t="s">
+    <row r="30" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="E30" s="1" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="E31" s="1" t="s">
+    <row r="31" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="F31" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="F31" s="1" t="s">
+      <c r="G31" s="1" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="E32" s="1" t="s">
+    <row r="32" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="F32" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="F32" s="1" t="s">
+      <c r="G32" s="1" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="33" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="E33" s="1" t="s">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F33" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="F33" s="1" t="s">
+      <c r="G33" s="1" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="34" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="D34" s="1" t="s">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E34" s="1" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="35" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="E35" s="1" t="s">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C35" s="13"/>
+      <c r="F35" s="1" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="36" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="F36" s="1" t="s">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G36" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="37" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="F37" s="1" t="s">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G37" s="1" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="38" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="F38" s="1" t="s">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G38" s="1" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="39" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="D39" s="1" t="s">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E39" s="1" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="40" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="E40" s="1" t="s">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F40" s="1" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="41" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="F41" s="1" t="s">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G41" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="42" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="F42" s="1" t="s">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G42" s="1" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="43" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="F43" s="1" t="s">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G43" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="45" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C45" s="1" t="s">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A45" s="12" t="s">
+        <v>227</v>
+      </c>
+      <c r="D45" s="1" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="46" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="D46" s="1" t="s">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E46" s="1" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="47" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="D47" s="1" t="s">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E47" s="1" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="48" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="D48" s="1" t="s">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E48" s="1" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="49" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D49" s="1" t="s">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E49" s="1" t="s">
         <v>43</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A51" s="12" t="s">
+        <v>228</v>
       </c>
     </row>
   </sheetData>
@@ -6068,104 +6207,107 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M192"/>
+  <dimension ref="A1:N192"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="O24" sqref="O24"/>
+    <sheetView topLeftCell="A177" zoomScale="144" workbookViewId="0">
+      <selection activeCell="C205" sqref="C205"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="16384" width="9" style="1"/>
+    <col min="1" max="1" width="26.5" style="1" customWidth="1"/>
+    <col min="2" max="16384" width="8.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B1" s="1" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B2" s="1" t="s">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C2" s="1" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="C3" s="4" t="s">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D3" s="4" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="C4" s="1" t="s">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D4" s="1" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="C5" s="1" t="s">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D5" s="1" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="C7" s="4" t="s">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D7" s="4" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="C8" s="1" t="s">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D8" s="1" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="D9" s="1" t="s">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E9" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="E9" s="1" t="s">
+      <c r="F9" s="1" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="D10" s="1" t="s">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E10" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="E10" s="1" t="s">
+      <c r="F10" s="1" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="D11" s="1" t="s">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E11" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="E11" s="1" t="s">
+      <c r="F11" s="1" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="E12" s="1" t="s">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F12" s="1" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="E13" s="1" t="s">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F13" s="1" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="D14" s="1" t="s">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" s="12" t="s">
+        <v>229</v>
+      </c>
+      <c r="E14" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="E14" s="1" t="s">
+      <c r="F14" s="1" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="C16" s="4" t="s">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D16" s="4" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="17" spans="4:13" x14ac:dyDescent="0.3">
-      <c r="D17" s="2" t="s">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="E17" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="E17" s="2"/>
       <c r="F17" s="2"/>
       <c r="G17" s="2"/>
       <c r="H17" s="2"/>
@@ -6174,12 +6316,12 @@
       <c r="K17" s="2"/>
       <c r="L17" s="2"/>
       <c r="M17" s="2"/>
-    </row>
-    <row r="18" spans="4:13" x14ac:dyDescent="0.3">
-      <c r="D18" s="2" t="s">
+      <c r="N17" s="2"/>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="E18" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="E18" s="2"/>
       <c r="F18" s="2"/>
       <c r="G18" s="2"/>
       <c r="H18" s="2"/>
@@ -6188,95 +6330,98 @@
       <c r="K18" s="2"/>
       <c r="L18" s="2"/>
       <c r="M18" s="2"/>
-    </row>
-    <row r="19" spans="4:13" x14ac:dyDescent="0.3">
-      <c r="D19" s="2" t="s">
+      <c r="N18" s="2"/>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="E19" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="E19" s="2"/>
       <c r="F19" s="2"/>
       <c r="G19" s="2"/>
-      <c r="H19" s="2" t="s">
+      <c r="H19" s="2"/>
+      <c r="I19" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="I19" s="2"/>
       <c r="J19" s="2"/>
       <c r="K19" s="2"/>
       <c r="L19" s="2"/>
       <c r="M19" s="2"/>
-    </row>
-    <row r="20" spans="4:13" x14ac:dyDescent="0.3">
-      <c r="D20" s="2"/>
+      <c r="N19" s="2"/>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A20" s="12" t="s">
+        <v>230</v>
+      </c>
       <c r="E20" s="2"/>
       <c r="F20" s="2"/>
       <c r="G20" s="2"/>
       <c r="H20" s="2"/>
-      <c r="I20" s="2" t="s">
+      <c r="I20" s="2"/>
+      <c r="J20" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="J20" s="2"/>
       <c r="K20" s="2"/>
       <c r="L20" s="2"/>
       <c r="M20" s="2"/>
-    </row>
-    <row r="21" spans="4:13" x14ac:dyDescent="0.3">
-      <c r="D21" s="2"/>
+      <c r="N20" s="2"/>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
       <c r="E21" s="2"/>
       <c r="F21" s="2"/>
       <c r="G21" s="2"/>
-      <c r="H21" s="2" t="s">
+      <c r="H21" s="2"/>
+      <c r="I21" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="I21" s="2"/>
       <c r="J21" s="2"/>
       <c r="K21" s="2"/>
       <c r="L21" s="2"/>
       <c r="M21" s="2"/>
-    </row>
-    <row r="22" spans="4:13" x14ac:dyDescent="0.3">
-      <c r="D22" s="2"/>
+      <c r="N21" s="2"/>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
       <c r="E22" s="2"/>
       <c r="F22" s="2"/>
       <c r="G22" s="2"/>
       <c r="H22" s="2"/>
-      <c r="I22" s="2" t="s">
+      <c r="I22" s="2"/>
+      <c r="J22" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="J22" s="2"/>
       <c r="K22" s="2"/>
       <c r="L22" s="2"/>
       <c r="M22" s="2"/>
-    </row>
-    <row r="23" spans="4:13" x14ac:dyDescent="0.3">
-      <c r="D23" s="2"/>
+      <c r="N22" s="2"/>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
       <c r="E23" s="2"/>
       <c r="F23" s="2"/>
       <c r="G23" s="2"/>
       <c r="H23" s="2"/>
-      <c r="I23" s="2" t="s">
+      <c r="I23" s="2"/>
+      <c r="J23" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="J23" s="2"/>
       <c r="K23" s="2"/>
       <c r="L23" s="2"/>
       <c r="M23" s="2"/>
-    </row>
-    <row r="24" spans="4:13" x14ac:dyDescent="0.3">
-      <c r="D24" s="2"/>
+      <c r="N23" s="2"/>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
       <c r="E24" s="2"/>
       <c r="F24" s="2"/>
       <c r="G24" s="2"/>
       <c r="H24" s="2"/>
-      <c r="I24" s="2" t="s">
+      <c r="I24" s="2"/>
+      <c r="J24" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="J24" s="2"/>
       <c r="K24" s="2"/>
       <c r="L24" s="2"/>
       <c r="M24" s="2"/>
-    </row>
-    <row r="25" spans="4:13" x14ac:dyDescent="0.3">
-      <c r="D25" s="2"/>
+      <c r="N24" s="2"/>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
       <c r="E25" s="2"/>
       <c r="F25" s="2"/>
       <c r="G25" s="2"/>
@@ -6286,291 +6431,318 @@
       <c r="K25" s="2"/>
       <c r="L25" s="2"/>
       <c r="M25" s="2"/>
-    </row>
-    <row r="26" spans="4:13" x14ac:dyDescent="0.3">
-      <c r="D26" s="2"/>
+      <c r="N25" s="2"/>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
       <c r="E26" s="2"/>
       <c r="F26" s="2"/>
       <c r="G26" s="2"/>
-      <c r="H26" s="2" t="s">
+      <c r="H26" s="2"/>
+      <c r="I26" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="I26" s="2"/>
       <c r="J26" s="2"/>
       <c r="K26" s="2"/>
       <c r="L26" s="2"/>
       <c r="M26" s="2"/>
-    </row>
-    <row r="27" spans="4:13" x14ac:dyDescent="0.3">
-      <c r="D27" s="2"/>
+      <c r="N26" s="2"/>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
       <c r="E27" s="2"/>
       <c r="F27" s="2"/>
       <c r="G27" s="2"/>
       <c r="H27" s="2"/>
-      <c r="I27" s="2" t="s">
+      <c r="I27" s="2"/>
+      <c r="J27" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="J27" s="2"/>
       <c r="K27" s="2"/>
       <c r="L27" s="2"/>
       <c r="M27" s="2"/>
-    </row>
-    <row r="28" spans="4:13" x14ac:dyDescent="0.3">
-      <c r="D28" s="2"/>
+      <c r="N27" s="2"/>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
       <c r="E28" s="2"/>
       <c r="F28" s="2"/>
       <c r="G28" s="2"/>
       <c r="H28" s="2"/>
-      <c r="I28" s="2" t="s">
+      <c r="I28" s="2"/>
+      <c r="J28" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="J28" s="2"/>
       <c r="K28" s="2"/>
       <c r="L28" s="2"/>
       <c r="M28" s="2"/>
-    </row>
-    <row r="29" spans="4:13" x14ac:dyDescent="0.3">
-      <c r="D29" s="2"/>
+      <c r="N28" s="2"/>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
       <c r="E29" s="2"/>
       <c r="F29" s="2"/>
       <c r="G29" s="2"/>
       <c r="H29" s="2"/>
-      <c r="I29" s="2" t="s">
+      <c r="I29" s="2"/>
+      <c r="J29" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="J29" s="2"/>
       <c r="K29" s="2"/>
       <c r="L29" s="2"/>
       <c r="M29" s="2"/>
-    </row>
-    <row r="30" spans="4:13" x14ac:dyDescent="0.3">
-      <c r="D30" s="2"/>
+      <c r="N29" s="2"/>
+    </row>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
       <c r="E30" s="2"/>
       <c r="F30" s="2"/>
       <c r="G30" s="2"/>
       <c r="H30" s="2"/>
       <c r="I30" s="2"/>
-      <c r="J30" s="2" t="s">
+      <c r="J30" s="2"/>
+      <c r="K30" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="K30" s="2" t="s">
+      <c r="L30" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="L30" s="2"/>
       <c r="M30" s="2"/>
-    </row>
-    <row r="31" spans="4:13" x14ac:dyDescent="0.3">
-      <c r="D31" s="2"/>
+      <c r="N30" s="2"/>
+    </row>
+    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A31" s="12" t="s">
+        <v>231</v>
+      </c>
       <c r="E31" s="2"/>
       <c r="F31" s="2"/>
       <c r="G31" s="2"/>
       <c r="H31" s="2"/>
       <c r="I31" s="2"/>
-      <c r="J31" s="2" t="s">
+      <c r="J31" s="2"/>
+      <c r="K31" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="K31" s="2" t="s">
+      <c r="L31" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="L31" s="2"/>
       <c r="M31" s="2"/>
-    </row>
-    <row r="32" spans="4:13" x14ac:dyDescent="0.3">
-      <c r="D32" s="2"/>
+      <c r="N31" s="2"/>
+    </row>
+    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
       <c r="E32" s="2"/>
       <c r="F32" s="2"/>
       <c r="G32" s="2"/>
       <c r="H32" s="2"/>
-      <c r="I32" s="3"/>
+      <c r="I32" s="2"/>
       <c r="J32" s="3"/>
       <c r="K32" s="3"/>
       <c r="L32" s="3"/>
       <c r="M32" s="3"/>
-    </row>
-    <row r="33" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="D33" s="2"/>
+      <c r="N32" s="3"/>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A33" s="12" t="s">
+        <v>232</v>
+      </c>
       <c r="E33" s="2"/>
       <c r="F33" s="2"/>
       <c r="G33" s="2"/>
-      <c r="H33" s="3" t="s">
+      <c r="H33" s="2"/>
+      <c r="I33" s="3" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="34" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="E34" s="3"/>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="F34" s="3"/>
       <c r="G34" s="3"/>
       <c r="H34" s="3"/>
-    </row>
-    <row r="37" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B37" s="1" t="s">
+      <c r="I34" s="3"/>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C37" s="1" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="38" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="C38" s="1" t="s">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A38" s="12" t="s">
+        <v>233</v>
+      </c>
+      <c r="D38" s="1" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="39" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="D39" s="1" t="s">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A39" s="12" t="s">
+        <v>234</v>
+      </c>
+      <c r="E39" s="1" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="40" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="E40" s="1" t="s">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="F40" s="1" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="41" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="D41" s="1" t="s">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="E41" s="1" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="42" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="E42" s="1" t="s">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A42" s="12" t="s">
+        <v>235</v>
+      </c>
+      <c r="F42" s="1" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="43" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="D43" s="1" t="s">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="E43" s="1" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="46" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B46" s="1" t="s">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C46" s="1" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="47" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="C47" s="4" t="s">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="D47" s="4" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="48" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="D48" s="1" t="s">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A48" s="12" t="s">
+        <v>236</v>
+      </c>
+      <c r="E48" s="1" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="D49" s="1" t="s">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E49" s="1" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="D50" s="1" t="s">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E50" s="1" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="C52" s="4" t="s">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D52" s="4" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="D53" s="1" t="s">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E53" s="1" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B55" s="1" t="s">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A55" s="12" t="s">
+        <v>239</v>
+      </c>
+      <c r="C55" s="1" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="C56" s="1" t="s">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A56" s="12" t="s">
+        <v>237</v>
+      </c>
+      <c r="D56" s="1" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="C57" s="1" t="s">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A57" s="12" t="s">
+        <v>238</v>
+      </c>
+      <c r="D57" s="1" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="C58" s="1" t="s">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D58" s="1" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A61" s="1" t="s">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B61" s="1" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B62" s="1" t="s">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C62" s="1" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="C63" s="1" t="s">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D63" s="1" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="65" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B65" s="1" t="s">
+    <row r="65" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="C65" s="1" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="66" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="C66" s="4" t="s">
+    <row r="66" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="D66" s="4" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="67" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="C67" s="1" t="s">
+    <row r="67" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="D67" s="1" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="69" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="C69" s="4" t="s">
+    <row r="69" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="D69" s="4" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="70" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="C70" s="1" t="s">
+    <row r="70" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="D70" s="1" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="71" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="D71" s="1" t="s">
+    <row r="71" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="E71" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="E71" s="1" t="s">
+      <c r="F71" s="1" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="72" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="D72" s="1" t="s">
+    <row r="72" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="E72" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="E72" s="1" t="s">
+      <c r="F72" s="1" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="73" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="D73" s="1" t="s">
+    <row r="73" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="E73" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="E73" s="1" t="s">
+      <c r="F73" s="1" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="74" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="E74" s="1" t="s">
+    <row r="74" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="F74" s="1" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="76" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="C76" s="4" t="s">
+    <row r="76" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="D76" s="4" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="77" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="C77" s="2" t="s">
+    <row r="77" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="D77" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="D77" s="2"/>
       <c r="E77" s="2"/>
       <c r="F77" s="2"/>
       <c r="G77" s="2"/>
@@ -6579,12 +6751,12 @@
       <c r="J77" s="2"/>
       <c r="K77" s="2"/>
       <c r="L77" s="2"/>
-    </row>
-    <row r="78" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="C78" s="2" t="s">
+      <c r="M77" s="2"/>
+    </row>
+    <row r="78" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="D78" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="D78" s="2"/>
       <c r="E78" s="2"/>
       <c r="F78" s="2"/>
       <c r="G78" s="2"/>
@@ -6593,9 +6765,9 @@
       <c r="J78" s="2"/>
       <c r="K78" s="2"/>
       <c r="L78" s="2"/>
-    </row>
-    <row r="79" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="C79" s="2"/>
+      <c r="M78" s="2"/>
+    </row>
+    <row r="79" spans="3:13" x14ac:dyDescent="0.25">
       <c r="D79" s="2"/>
       <c r="E79" s="2"/>
       <c r="F79" s="2"/>
@@ -6605,123 +6777,129 @@
       <c r="J79" s="2"/>
       <c r="K79" s="2"/>
       <c r="L79" s="2"/>
-    </row>
-    <row r="80" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="C80" s="2"/>
+      <c r="M79" s="2"/>
+    </row>
+    <row r="80" spans="3:13" x14ac:dyDescent="0.25">
       <c r="D80" s="2"/>
       <c r="E80" s="2"/>
       <c r="F80" s="2"/>
-      <c r="G80" s="2" t="s">
+      <c r="G80" s="2"/>
+      <c r="H80" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="H80" s="2"/>
       <c r="I80" s="2"/>
       <c r="J80" s="2"/>
       <c r="K80" s="2"/>
       <c r="L80" s="2"/>
-    </row>
-    <row r="81" spans="3:12" x14ac:dyDescent="0.3">
-      <c r="C81" s="2"/>
+      <c r="M80" s="2"/>
+    </row>
+    <row r="81" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A81" s="12" t="s">
+        <v>240</v>
+      </c>
       <c r="D81" s="2"/>
       <c r="E81" s="2"/>
       <c r="F81" s="2"/>
       <c r="G81" s="2"/>
-      <c r="H81" s="2" t="s">
+      <c r="H81" s="2"/>
+      <c r="I81" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="I81" s="2"/>
       <c r="J81" s="2"/>
       <c r="K81" s="2"/>
       <c r="L81" s="2"/>
-    </row>
-    <row r="82" spans="3:12" x14ac:dyDescent="0.3">
-      <c r="C82" s="2"/>
+      <c r="M81" s="2"/>
+    </row>
+    <row r="82" spans="1:13" x14ac:dyDescent="0.25">
       <c r="D82" s="2"/>
       <c r="E82" s="2"/>
       <c r="F82" s="2"/>
-      <c r="G82" s="2" t="s">
+      <c r="G82" s="2"/>
+      <c r="H82" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="H82" s="2"/>
       <c r="I82" s="2"/>
       <c r="J82" s="2"/>
       <c r="K82" s="2"/>
       <c r="L82" s="2"/>
-    </row>
-    <row r="83" spans="3:12" x14ac:dyDescent="0.3">
-      <c r="C83" s="2"/>
+      <c r="M82" s="2"/>
+    </row>
+    <row r="83" spans="1:13" x14ac:dyDescent="0.25">
       <c r="D83" s="2"/>
       <c r="E83" s="2"/>
       <c r="F83" s="2"/>
       <c r="G83" s="2"/>
-      <c r="H83" s="2" t="s">
+      <c r="H83" s="2"/>
+      <c r="I83" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="I83" s="2"/>
       <c r="J83" s="2"/>
       <c r="K83" s="2"/>
       <c r="L83" s="2"/>
-    </row>
-    <row r="84" spans="3:12" x14ac:dyDescent="0.3">
-      <c r="C84" s="2"/>
+      <c r="M83" s="2"/>
+    </row>
+    <row r="84" spans="1:13" x14ac:dyDescent="0.25">
       <c r="D84" s="2"/>
       <c r="E84" s="2"/>
       <c r="F84" s="2"/>
-      <c r="G84" s="2" t="s">
+      <c r="G84" s="2"/>
+      <c r="H84" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="H84" s="2"/>
       <c r="I84" s="2"/>
       <c r="J84" s="2"/>
       <c r="K84" s="2"/>
       <c r="L84" s="2"/>
-    </row>
-    <row r="85" spans="3:12" x14ac:dyDescent="0.3">
-      <c r="C85" s="2"/>
+      <c r="M84" s="2"/>
+    </row>
+    <row r="85" spans="1:13" x14ac:dyDescent="0.25">
       <c r="D85" s="2"/>
       <c r="E85" s="2"/>
       <c r="F85" s="2"/>
       <c r="G85" s="2"/>
-      <c r="H85" s="2" t="s">
+      <c r="H85" s="2"/>
+      <c r="I85" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="I85" s="2"/>
       <c r="J85" s="2"/>
       <c r="K85" s="2"/>
       <c r="L85" s="2"/>
-    </row>
-    <row r="86" spans="3:12" x14ac:dyDescent="0.3">
-      <c r="C86" s="2"/>
+      <c r="M85" s="2"/>
+    </row>
+    <row r="86" spans="1:13" x14ac:dyDescent="0.25">
       <c r="D86" s="2"/>
       <c r="E86" s="2"/>
       <c r="F86" s="2"/>
       <c r="G86" s="2"/>
       <c r="H86" s="2"/>
-      <c r="I86" s="2" t="s">
+      <c r="I86" s="2"/>
+      <c r="J86" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="J86" s="2"/>
       <c r="K86" s="2"/>
       <c r="L86" s="2"/>
-    </row>
-    <row r="87" spans="3:12" x14ac:dyDescent="0.3">
-      <c r="C87" s="2"/>
+      <c r="M86" s="2"/>
+    </row>
+    <row r="87" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A87" s="12" t="s">
+        <v>241</v>
+      </c>
       <c r="D87" s="2"/>
       <c r="E87" s="2"/>
       <c r="F87" s="2"/>
       <c r="G87" s="2"/>
-      <c r="H87" s="2" t="s">
+      <c r="H87" s="2"/>
+      <c r="I87" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="I87" s="2" t="s">
+      <c r="J87" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="J87" s="2"/>
       <c r="K87" s="2"/>
       <c r="L87" s="2"/>
-    </row>
-    <row r="88" spans="3:12" x14ac:dyDescent="0.3">
-      <c r="C88" s="2"/>
+      <c r="M87" s="2"/>
+    </row>
+    <row r="88" spans="1:13" x14ac:dyDescent="0.25">
       <c r="D88" s="2"/>
       <c r="E88" s="2"/>
       <c r="F88" s="2"/>
@@ -6731,9 +6909,9 @@
       <c r="J88" s="2"/>
       <c r="K88" s="2"/>
       <c r="L88" s="2"/>
-    </row>
-    <row r="89" spans="3:12" x14ac:dyDescent="0.3">
-      <c r="C89" s="2"/>
+      <c r="M88" s="2"/>
+    </row>
+    <row r="89" spans="1:13" x14ac:dyDescent="0.25">
       <c r="D89" s="2"/>
       <c r="E89" s="2"/>
       <c r="F89" s="2"/>
@@ -6743,9 +6921,9 @@
       <c r="J89" s="2"/>
       <c r="K89" s="2"/>
       <c r="L89" s="2"/>
-    </row>
-    <row r="90" spans="3:12" x14ac:dyDescent="0.3">
-      <c r="C90" s="2"/>
+      <c r="M89" s="2"/>
+    </row>
+    <row r="90" spans="1:13" x14ac:dyDescent="0.25">
       <c r="D90" s="2"/>
       <c r="E90" s="2"/>
       <c r="F90" s="2"/>
@@ -6755,9 +6933,9 @@
       <c r="J90" s="2"/>
       <c r="K90" s="2"/>
       <c r="L90" s="2"/>
-    </row>
-    <row r="91" spans="3:12" x14ac:dyDescent="0.3">
-      <c r="C91" s="2"/>
+      <c r="M90" s="2"/>
+    </row>
+    <row r="91" spans="1:13" x14ac:dyDescent="0.25">
       <c r="D91" s="2"/>
       <c r="E91" s="2"/>
       <c r="F91" s="2"/>
@@ -6767,9 +6945,9 @@
       <c r="J91" s="2"/>
       <c r="K91" s="2"/>
       <c r="L91" s="2"/>
-    </row>
-    <row r="92" spans="3:12" x14ac:dyDescent="0.3">
-      <c r="C92" s="2"/>
+      <c r="M91" s="2"/>
+    </row>
+    <row r="92" spans="1:13" x14ac:dyDescent="0.25">
       <c r="D92" s="2"/>
       <c r="E92" s="2"/>
       <c r="F92" s="2"/>
@@ -6779,9 +6957,9 @@
       <c r="J92" s="2"/>
       <c r="K92" s="2"/>
       <c r="L92" s="2"/>
-    </row>
-    <row r="93" spans="3:12" x14ac:dyDescent="0.3">
-      <c r="C93" s="2"/>
+      <c r="M92" s="2"/>
+    </row>
+    <row r="93" spans="1:13" x14ac:dyDescent="0.25">
       <c r="D93" s="2"/>
       <c r="E93" s="2"/>
       <c r="F93" s="2"/>
@@ -6791,9 +6969,9 @@
       <c r="J93" s="2"/>
       <c r="K93" s="2"/>
       <c r="L93" s="2"/>
-    </row>
-    <row r="94" spans="3:12" x14ac:dyDescent="0.3">
-      <c r="C94" s="2"/>
+      <c r="M93" s="2"/>
+    </row>
+    <row r="94" spans="1:13" x14ac:dyDescent="0.25">
       <c r="D94" s="2"/>
       <c r="E94" s="2"/>
       <c r="F94" s="2"/>
@@ -6803,284 +6981,299 @@
       <c r="J94" s="2"/>
       <c r="K94" s="2"/>
       <c r="L94" s="2"/>
-    </row>
-    <row r="96" spans="3:12" x14ac:dyDescent="0.3">
-      <c r="C96" s="4" t="s">
+      <c r="M94" s="2"/>
+    </row>
+    <row r="96" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="D96" s="4" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="97" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="C97" s="1" t="s">
+    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D97" s="1" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="98" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="C98" s="1" t="s">
+    <row r="98" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D98" s="1" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="101" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B101" s="1" t="s">
+    <row r="101" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C101" s="1" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="102" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="C102" s="4" t="s">
+    <row r="102" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D102" s="4" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="103" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="C103" s="1" t="s">
+    <row r="103" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A103" s="12" t="s">
+        <v>242</v>
+      </c>
+      <c r="D103" s="1" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="104" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="C104" s="1" t="s">
+    <row r="104" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D104" s="1" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="105" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="D105" s="4" t="s">
+    <row r="105" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E105" s="4" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="106" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="E106" s="1" t="s">
+    <row r="106" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F106" s="1" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="107" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="E107" s="1" t="s">
+    <row r="107" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F107" s="1" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="109" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="E109" s="1" t="s">
+    <row r="109" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F109" s="1" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="110" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="F110" s="1" t="s">
+    <row r="110" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G110" s="1" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="122" spans="6:7" x14ac:dyDescent="0.3">
-      <c r="F122" s="1" t="s">
+    <row r="111" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A111" s="12" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="122" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G122" s="1" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="123" spans="6:7" x14ac:dyDescent="0.3">
-      <c r="G123" s="1" t="s">
+    <row r="123" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="H123" s="1" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="124" spans="6:7" x14ac:dyDescent="0.3">
-      <c r="F124" s="1" t="s">
+    <row r="124" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G124" s="1" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="125" spans="6:7" x14ac:dyDescent="0.3">
-      <c r="G125" s="1" t="s">
+    <row r="125" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="H125" s="1" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="126" spans="6:7" x14ac:dyDescent="0.3">
-      <c r="F126" s="1" t="s">
+    <row r="126" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G126" s="1" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="127" spans="6:7" x14ac:dyDescent="0.3">
-      <c r="G127" s="1" t="s">
+    <row r="127" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="H127" s="1" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="128" spans="6:7" x14ac:dyDescent="0.3">
-      <c r="F128" s="1" t="s">
+    <row r="128" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G128" s="1" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="129" spans="4:7" x14ac:dyDescent="0.3">
-      <c r="G129" s="1" t="s">
+    <row r="129" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A129" s="12" t="s">
+        <v>244</v>
+      </c>
+      <c r="H129" s="1" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="130" spans="4:7" x14ac:dyDescent="0.3">
-      <c r="G130" s="1" t="s">
+    <row r="130" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H130" s="1" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="131" spans="4:7" x14ac:dyDescent="0.3">
-      <c r="F131" s="1" t="s">
+    <row r="131" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G131" s="1" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="132" spans="4:7" x14ac:dyDescent="0.3">
-      <c r="G132" s="1" t="s">
+    <row r="132" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H132" s="1" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="133" spans="4:7" x14ac:dyDescent="0.3">
-      <c r="G133" s="1" t="s">
+    <row r="133" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H133" s="1" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="134" spans="4:7" x14ac:dyDescent="0.3">
-      <c r="F134" s="1" t="s">
+    <row r="134" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G134" s="1" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="135" spans="4:7" x14ac:dyDescent="0.3">
-      <c r="G135" s="1" t="s">
+    <row r="135" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H135" s="1" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="137" spans="4:7" x14ac:dyDescent="0.3">
-      <c r="E137" s="1" t="s">
+    <row r="137" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F137" s="1" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="138" spans="4:7" x14ac:dyDescent="0.3">
-      <c r="E138" s="1" t="s">
+    <row r="138" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A138" s="12" t="s">
+        <v>245</v>
+      </c>
+      <c r="F138" s="1" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="140" spans="4:7" x14ac:dyDescent="0.3">
-      <c r="D140" s="4" t="s">
+    <row r="140" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="E140" s="4" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="141" spans="4:7" x14ac:dyDescent="0.3">
-      <c r="E141" s="1" t="s">
+    <row r="141" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F141" s="1" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="143" spans="4:7" x14ac:dyDescent="0.3">
-      <c r="D143" s="4" t="s">
+    <row r="143" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="E143" s="4" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="144" spans="4:7" x14ac:dyDescent="0.3">
-      <c r="E144" s="1" t="s">
+    <row r="144" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F144" s="1" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="145" spans="5:6" x14ac:dyDescent="0.3">
-      <c r="E145" s="1" t="s">
+    <row r="145" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F145" s="1" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="146" spans="5:6" x14ac:dyDescent="0.3">
-      <c r="E146" s="1" t="s">
+    <row r="146" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F146" s="1" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="147" spans="5:6" x14ac:dyDescent="0.3">
-      <c r="E147" s="1" t="s">
+    <row r="147" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F147" s="1" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="148" spans="5:6" x14ac:dyDescent="0.3">
-      <c r="E148" s="1" t="s">
+    <row r="148" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F148" s="1" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="150" spans="5:6" x14ac:dyDescent="0.3">
-      <c r="E150" s="1" t="s">
+    <row r="150" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F150" s="1" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="151" spans="5:6" x14ac:dyDescent="0.3">
-      <c r="F151" s="1" t="s">
+    <row r="151" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="G151" s="1" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="163" spans="6:7" x14ac:dyDescent="0.3">
-      <c r="F163" s="1" t="s">
+    <row r="163" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G163" s="1" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="175" spans="6:7" x14ac:dyDescent="0.3">
-      <c r="F175" s="1" t="s">
+    <row r="175" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G175" s="1" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="176" spans="6:7" x14ac:dyDescent="0.3">
-      <c r="G176" s="1" t="s">
+    <row r="176" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="H176" s="1" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="177" spans="5:8" x14ac:dyDescent="0.3">
-      <c r="F177" s="1" t="s">
+    <row r="177" spans="6:9" x14ac:dyDescent="0.25">
+      <c r="G177" s="1" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="178" spans="5:8" x14ac:dyDescent="0.3">
-      <c r="G178" s="1" t="s">
+    <row r="178" spans="6:9" x14ac:dyDescent="0.25">
+      <c r="H178" s="1" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="179" spans="5:8" x14ac:dyDescent="0.3">
-      <c r="F179" s="1" t="s">
+    <row r="179" spans="6:9" x14ac:dyDescent="0.25">
+      <c r="G179" s="1" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="180" spans="5:8" x14ac:dyDescent="0.3">
-      <c r="G180" s="1" t="s">
+    <row r="180" spans="6:9" x14ac:dyDescent="0.25">
+      <c r="H180" s="1" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="181" spans="5:8" x14ac:dyDescent="0.3">
-      <c r="F181" s="1" t="s">
+    <row r="181" spans="6:9" x14ac:dyDescent="0.25">
+      <c r="G181" s="1" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="182" spans="5:8" x14ac:dyDescent="0.3">
-      <c r="G182" s="1" t="s">
+    <row r="182" spans="6:9" x14ac:dyDescent="0.25">
+      <c r="H182" s="1" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="183" spans="5:8" x14ac:dyDescent="0.3">
-      <c r="F183" s="1" t="s">
+    <row r="183" spans="6:9" x14ac:dyDescent="0.25">
+      <c r="G183" s="1" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="184" spans="5:8" x14ac:dyDescent="0.3">
-      <c r="G184" s="1" t="s">
+    <row r="184" spans="6:9" x14ac:dyDescent="0.25">
+      <c r="H184" s="1" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="185" spans="5:8" x14ac:dyDescent="0.3">
-      <c r="G185" s="1" t="s">
+    <row r="185" spans="6:9" x14ac:dyDescent="0.25">
+      <c r="H185" s="1" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="186" spans="5:8" x14ac:dyDescent="0.3">
-      <c r="G186" s="1" t="s">
+    <row r="186" spans="6:9" x14ac:dyDescent="0.25">
+      <c r="H186" s="1" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="187" spans="5:8" x14ac:dyDescent="0.3">
-      <c r="H187" s="1" t="s">
+    <row r="187" spans="6:9" x14ac:dyDescent="0.25">
+      <c r="I187" s="1" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="188" spans="5:8" x14ac:dyDescent="0.3">
-      <c r="H188" s="1" t="s">
+    <row r="188" spans="6:9" x14ac:dyDescent="0.25">
+      <c r="I188" s="1" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="190" spans="5:8" x14ac:dyDescent="0.3">
-      <c r="E190" s="1" t="s">
+    <row r="190" spans="6:9" x14ac:dyDescent="0.25">
+      <c r="F190" s="1" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="191" spans="5:8" x14ac:dyDescent="0.3">
-      <c r="E191" s="1" t="s">
+    <row r="191" spans="6:9" x14ac:dyDescent="0.25">
+      <c r="F191" s="1" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="192" spans="5:8" x14ac:dyDescent="0.3">
-      <c r="E192" s="1" t="s">
+    <row r="192" spans="6:9" x14ac:dyDescent="0.25">
+      <c r="F192" s="1" t="s">
         <v>214</v>
       </c>
     </row>
@@ -7094,139 +7287,152 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D55"/>
+  <dimension ref="A1:E55"/>
   <sheetViews>
-    <sheetView topLeftCell="A37" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C56" sqref="C56"/>
+    <sheetView tabSelected="1" topLeftCell="A36" zoomScale="125" workbookViewId="0">
+      <selection activeCell="A52" sqref="A52:A53"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="16384" width="9" style="1"/>
+    <col min="1" max="1" width="26.5" style="1" customWidth="1"/>
+    <col min="2" max="16384" width="8.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B1" s="1" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="21" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B21" s="1" t="s">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C21" s="1" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="22" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="C22" s="1" t="s">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D22" s="1" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="23" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="C23" s="1" t="s">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" s="12" t="s">
+        <v>246</v>
+      </c>
+      <c r="D23" s="1" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="24" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="C24" s="1" t="s">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D24" s="1" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="31" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="C31" s="1" t="s">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D31" s="1" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="33" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B33" s="1" t="s">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C33" s="1" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="34" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="C34" s="1" t="s">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D34" s="1" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="35" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="C35" s="1" t="s">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D35" s="1" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="36" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="C36" s="1" t="s">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D36" s="1" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="38" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B38" s="1" t="s">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C38" s="1" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="39" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="C39" s="1" t="s">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A39" s="12" t="s">
+        <v>247</v>
+      </c>
+      <c r="D39" s="1" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="40" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="C40" s="1" t="s">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A40" s="12" t="s">
+        <v>248</v>
+      </c>
+      <c r="D40" s="1" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="41" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="C41" s="1" t="s">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D41" s="1" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="42" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="C42" s="1" t="s">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D42" s="1" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="44" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B44" s="1" t="s">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C44" s="1" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="45" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="C45" s="1" t="s">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D45" s="1" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="46" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="C46" s="1" t="s">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A46" s="12" t="s">
+        <v>249</v>
+      </c>
+      <c r="D46" s="1" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="47" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="D47" s="1" t="s">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E47" s="1" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="48" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="D48" s="1" t="s">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E48" s="1" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="49" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="C49" s="1" t="s">
+    <row r="49" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="D49" s="1" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="51" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="C51" s="1" t="s">
+    <row r="51" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="D51" s="1" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="53" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B53" s="1" t="s">
+    <row r="53" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C53" s="1" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="54" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="C54" s="1" t="s">
+    <row r="54" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="D54" s="1" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="55" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="C55" s="1" t="s">
+    <row r="55" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="D55" s="1" t="s">
         <v>225</v>
       </c>
     </row>
